--- a/data/save_data/2021/wendelken_j. b..xlsx
+++ b/data/save_data/2021/wendelken_j. b..xlsx
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>-2</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>-3</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>-5</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -808,7 +808,7 @@
         <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>-2</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1046,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>-7</v>
       </c>
       <c r="G23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1250,7 +1250,7 @@
         <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>-2</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>2</v>
@@ -1318,7 +1318,7 @@
         <v>-2</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>2</v>
@@ -1386,7 +1386,7 @@
         <v>-1</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>-2</v>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         <v>-2</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>2</v>
@@ -1522,7 +1522,7 @@
         <v>-1</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -1556,7 +1556,7 @@
         <v>-8</v>
       </c>
       <c r="G33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1590,7 +1590,7 @@
         <v>-2</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>-1</v>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>5</v>
       </c>
       <c r="G39" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1828,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -1862,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -1896,7 +1896,7 @@
         <v>-5</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>-7</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -1964,7 +1964,7 @@
         <v>-7</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -1998,7 +1998,7 @@
         <v>-4</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -2032,7 +2032,7 @@
         <v>-4</v>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2100,7 +2100,7 @@
         <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>-4</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2168,7 +2168,7 @@
         <v>-4</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2202,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2270,7 +2270,7 @@
         <v>-1</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>

--- a/data/save_data/2021/wendelken_j. b..xlsx
+++ b/data/save_data/2021/wendelken_j. b..xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -530,7 +530,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F3" t="n">
         <v>-2</v>
@@ -601,7 +601,7 @@
         <v>-3</v>
       </c>
       <c r="F5" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>27</v>
       </c>
       <c r="E7" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F7" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
@@ -768,10 +768,10 @@
         <v>22</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>24</v>
       </c>
       <c r="E15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F15" t="n">
         <v>-1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>-2</v>
       </c>
       <c r="F21" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>28</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>-7</v>
       </c>
       <c r="F23" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1244,10 +1244,10 @@
         <v>25</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>-2</v>
       </c>
       <c r="F25" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1312,10 +1312,10 @@
         <v>15</v>
       </c>
       <c r="E26" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F26" t="n">
         <v>-1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-2</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1346,10 +1346,10 @@
         <v>27</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1383,7 +1383,7 @@
         <v>-1</v>
       </c>
       <c r="F28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1448,7 +1448,7 @@
         <v>18</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F30" t="n">
         <v>-2</v>
@@ -1485,7 +1485,7 @@
         <v>-2</v>
       </c>
       <c r="F31" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>-1</v>
       </c>
       <c r="F32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1550,10 +1550,10 @@
         <v>24</v>
       </c>
       <c r="E33" t="n">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="F33" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>15</v>
       </c>
       <c r="E34" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F34" t="n">
         <v>-1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-2</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1621,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1686,10 +1686,10 @@
         <v>20</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -1723,7 +1723,7 @@
         <v>-1</v>
       </c>
       <c r="F38" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1757,7 +1757,7 @@
         <v>5</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -1791,7 +1791,7 @@
         <v>6</v>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1822,10 +1822,10 @@
         <v>14</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -1890,10 +1890,10 @@
         <v>9</v>
       </c>
       <c r="E43" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F43" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>-7</v>
       </c>
       <c r="F44" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1961,7 +1961,7 @@
         <v>-7</v>
       </c>
       <c r="F45" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1992,10 +1992,10 @@
         <v>14</v>
       </c>
       <c r="E46" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F46" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>-4</v>
       </c>
       <c r="F47" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2063,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2094,10 +2094,10 @@
         <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2128,10 +2128,10 @@
         <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F50" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2165,7 +2165,7 @@
         <v>-4</v>
       </c>
       <c r="F51" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2199,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>8</v>
       </c>
       <c r="F53" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2264,7 +2264,7 @@
         <v>8</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F54" t="n">
         <v>-1</v>
